--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -572,7 +572,7 @@
         <v>44168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44267</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44532</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44042</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44257</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43878</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44137</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43563</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44911</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44917</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45041</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45159</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43690</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43862</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44096</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44144</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44163</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>44496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44924</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44966</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44979</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44991</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>45148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45159</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43315</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43327</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43363</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43364</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43395</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43395</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43425</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43430</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43446</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43472</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43476</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43476</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43483</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43490</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43515</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43526</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43526</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43551</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43559</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43572</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43572</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43572</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43595</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43597</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43597</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43621</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43641</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43644</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43651</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43654</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43654</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43654</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43676</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43686</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43686</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43686</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43686</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43690</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43690</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43693</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43710</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>43710</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43710</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43713</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43718</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43719</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43719</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43719</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43723</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43749</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43759</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43768</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43768</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43770</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43782</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43783</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43783</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43786</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43796</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43801</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43818</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43829</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43829</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>43847</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43847</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43847</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43847</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43860</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43861</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43864</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43864</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43878</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43894</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43910</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>43917</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43917</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>43917</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43921</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43928</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43936</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43936</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43942</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43948</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43948</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43949</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>43973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43976</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44007</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44012</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44014</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44014</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44049</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44060</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>44061</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44061</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44071</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44078</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44081</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44082</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44082</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44082</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44082</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44082</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44082</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>44097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44102</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44105</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44112</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44118</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44118</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44118</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44120</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44123</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44123</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44123</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44124</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44124</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44124</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44125</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44130</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44131</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44133</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44138</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44146</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44146</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44151</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44151</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44151</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44158</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44161</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44162</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44166</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44167</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44167</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44167</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44167</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44168</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44180</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44183</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44187</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44201</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44203</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44215</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44215</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44221</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44230</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44245</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44256</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44258</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44264</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44270</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44281</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44281</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44309</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44319</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44323</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44323</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44340</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44340</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44340</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44340</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44340</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44340</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44340</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44340</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44341</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44349</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44351</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44354</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44356</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44365</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44368</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44376</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44379</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44384</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44384</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44385</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44400</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44414</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44418</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44426</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44432</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44441</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>44442</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44446</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44449</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44455</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44455</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44455</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44462</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44462</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44463</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44463</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44473</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44475</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44479</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44484</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44488</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44490</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44491</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44494</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44494</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44494</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44500</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44505</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44508</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44522</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44523</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44526</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44531</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44536</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44536</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44536</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44536</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44537</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44540</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44540</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44544</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44544</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44545</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44545</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44546</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44559</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44586</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44586</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>44592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44600</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44600</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44608</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44610</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>44614</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44627</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44628</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44641</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44652</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44652</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44659</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44659</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44659</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44673</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44673</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44685</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>44691</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44693</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44697</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44697</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44697</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44698</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44711</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>44714</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44715</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44721</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44721</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44721</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44721</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44732</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44749</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44750</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44771</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44777</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44784</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44788</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44791</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44794</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44797</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44797</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44802</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44803</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>44806</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44812</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44816</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44817</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>44817</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44818</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44818</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44818</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44819</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44820</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44825</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44834</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44839</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44840</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44841</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44844</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44845</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44845</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44846</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44848</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44851</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44854</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44860</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44860</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44861</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44865</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>44865</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>44868</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>44869</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44869</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44871</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>44872</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44873</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44874</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44874</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>44874</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>44874</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>44875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44875</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44876</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33947,7 +33947,7 @@
         <v>44880</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44881</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44882</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44886</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44886</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44886</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44886</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44888</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44888</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44890</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44902</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44902</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44902</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44902</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>44902</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44902</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44902</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44902</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44904</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44910</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44910</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>44910</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>44910</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>44910</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35811,7 +35811,7 @@
         <v>44911</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44914</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44915</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44915</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44915</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44916</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44916</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44917</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44917</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44918</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>44923</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>44924</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44925</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44925</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44925</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>44925</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>44925</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44925</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44925</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44925</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>44931</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44935</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44935</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37249,7 +37249,7 @@
         <v>44935</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44937</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>44938</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44942</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>44942</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>44943</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>44944</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44944</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44949</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44953</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44953</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44956</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44956</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44962</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44962</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44966</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>44967</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44967</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>44970</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>44971</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44971</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44974</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44974</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>44974</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38776,7 +38776,7 @@
         <v>44979</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44979</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44981</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>44987</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>44988</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>44995</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44998</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44999</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39356,7 +39356,7 @@
         <v>45001</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39418,7 +39418,7 @@
         <v>45005</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         <v>45014</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>45019</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>45019</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>45019</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>45021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45033</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45040</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39884,7 +39884,7 @@
         <v>45043</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>45043</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>45057</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45057</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45057</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45061</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45061</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45061</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45063</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45063</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45063</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45068</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>45068</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45069</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45069</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45072</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45076</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45076</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45084</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45093</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>45098</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45098</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45098</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45099</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41384,7 +41384,7 @@
         <v>45099</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45103</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45104</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45104</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45105</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45113</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45114</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45114</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45114</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45114</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45114</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45114</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45114</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45114</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45114</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45117</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45118</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45118</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>45118</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45118</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>45132</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45132</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45145</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45145</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45153</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45153</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45159</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45159</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45159</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45159</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45159</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45159</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>45159</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>45159</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45162</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43595,7 +43595,7 @@
         <v>45162</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43652,7 +43652,7 @@
         <v>45163</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45166</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>

--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -572,7 +572,7 @@
         <v>44168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44267</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44532</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44042</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44257</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43878</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44137</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43563</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44911</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44917</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45041</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45159</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43690</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43862</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44096</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44144</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44163</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>44496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44924</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44966</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44979</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44991</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>45148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45159</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43315</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43327</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43363</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43364</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43395</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43395</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43425</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43430</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43446</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43472</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43476</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43476</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43483</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43490</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43515</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43526</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43526</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43551</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43559</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43572</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43572</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43572</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43595</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43597</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43597</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43621</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43641</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43644</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43651</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43654</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43654</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43654</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43676</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43686</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43686</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43686</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43686</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43690</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43690</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43693</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43710</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>43710</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43710</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43713</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43718</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43719</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43719</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43719</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43723</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43749</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43759</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43768</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43768</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43770</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43782</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43783</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43783</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43786</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43796</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43801</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43818</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43829</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43829</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>43847</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43847</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43847</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43847</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43860</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43861</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43864</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43864</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43878</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43894</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43910</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>43917</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43917</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>43917</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43921</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43928</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43936</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43936</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43942</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43948</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43948</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43949</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>43973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43976</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44007</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44012</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44014</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44014</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44049</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44060</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>44061</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44061</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44071</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44078</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44081</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44082</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44082</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44082</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44082</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44082</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44082</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>44097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44102</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44105</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44112</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44118</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44118</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44118</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44120</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44123</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44123</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44123</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44124</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44124</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44124</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44125</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44130</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44131</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44133</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44138</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44146</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44146</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44151</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44151</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44151</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44158</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44161</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44162</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44166</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44167</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44167</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44167</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44167</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44168</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44180</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44183</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44187</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44201</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44203</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44215</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44215</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44221</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44230</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44245</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44256</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44258</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44264</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44270</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44281</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44281</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44309</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44319</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44323</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44323</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44340</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44340</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44340</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44340</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44340</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44340</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44340</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44340</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44341</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44349</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44351</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44354</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44356</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44365</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44368</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44376</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44379</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44384</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44384</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44385</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44400</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44414</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44418</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44426</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44432</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44441</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>44442</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44446</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44449</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44455</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44455</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44455</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44462</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44462</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44463</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44463</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44473</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44475</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44479</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44484</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44488</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44490</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44491</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44494</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44494</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44494</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44500</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44505</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44508</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44522</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44523</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44526</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44531</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44536</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44536</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44536</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44536</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44537</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44540</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44540</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44544</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44544</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44545</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44545</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44546</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44559</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44586</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44586</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>44592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44600</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44600</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44608</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44610</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>44614</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44627</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44628</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44641</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44652</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44652</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44659</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44659</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44659</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44673</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44673</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44685</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>44691</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44693</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44697</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44697</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44697</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44698</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44711</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>44714</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44715</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44721</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44721</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44721</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44721</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44732</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44749</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44750</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44771</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44777</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44784</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44788</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44791</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44794</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44797</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44797</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44802</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44803</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>44806</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44812</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44816</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44817</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>44817</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44818</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44818</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44818</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44819</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44820</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44825</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44834</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44839</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44840</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44841</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44844</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44845</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44845</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44846</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44848</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44851</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44854</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44860</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44860</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44861</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44865</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>44865</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>44868</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>44869</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44869</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44871</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>44872</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44873</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44874</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44874</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>44874</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>44874</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>44875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44875</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44876</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33947,7 +33947,7 @@
         <v>44880</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44881</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44882</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44886</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44886</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44886</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44886</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44888</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44888</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44890</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44902</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44902</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44902</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44902</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>44902</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44902</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44902</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44902</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44904</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44910</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44910</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>44910</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>44910</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>44910</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35811,7 +35811,7 @@
         <v>44911</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44914</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44915</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44915</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44915</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44916</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44916</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44917</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44917</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44918</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>44923</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>44924</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44925</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44925</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44925</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>44925</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>44925</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44925</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44925</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44925</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>44931</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44935</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44935</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37249,7 +37249,7 @@
         <v>44935</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44937</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>44938</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44942</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>44942</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>44943</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>44944</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44944</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44949</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44953</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44953</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44956</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44956</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44962</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44962</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44966</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>44967</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44967</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>44970</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>44971</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44971</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44974</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44974</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>44974</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38776,7 +38776,7 @@
         <v>44979</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44979</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44981</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>44987</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>44988</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>44995</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44998</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44999</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39356,7 +39356,7 @@
         <v>45001</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39418,7 +39418,7 @@
         <v>45005</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         <v>45014</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>45019</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>45019</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>45019</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>45021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45033</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45040</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39884,7 +39884,7 @@
         <v>45043</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>45043</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>45057</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45057</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45057</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45061</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45061</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45061</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45063</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45063</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45063</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45068</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>45068</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45069</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45069</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45072</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45076</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45076</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45084</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45093</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>45098</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45098</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45098</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45099</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41384,7 +41384,7 @@
         <v>45099</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45103</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45104</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45104</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45105</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45113</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45114</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45114</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45114</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45114</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45114</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45114</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45114</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45114</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45114</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45117</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45118</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45118</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>45118</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45118</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>45132</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45132</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45145</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45145</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45153</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45153</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45159</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45159</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45159</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45159</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45159</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45159</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>45159</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>45159</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45162</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43595,7 +43595,7 @@
         <v>45162</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43652,7 +43652,7 @@
         <v>45163</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45166</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>

--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -572,7 +572,7 @@
         <v>44168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44267</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44532</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44042</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44257</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43878</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44137</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43563</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44911</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44917</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45041</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45159</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43690</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43862</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44096</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44144</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44163</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>44496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44924</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44966</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44979</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44991</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>45148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45159</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43315</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43327</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43363</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43364</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43395</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43395</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43425</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43430</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43446</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43472</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43476</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43476</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43483</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43490</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43515</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43526</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43526</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43551</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43559</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43572</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43572</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43572</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43595</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43597</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43597</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43621</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43641</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43644</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43651</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43654</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43654</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43654</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43676</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43686</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43686</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43686</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43686</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43690</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43690</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43693</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43710</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>43710</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43710</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43713</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43718</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43719</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43719</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43719</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43723</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43749</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43759</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43768</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43768</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43770</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43782</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43783</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43783</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43786</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43796</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43801</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43818</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43829</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43829</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>43847</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43847</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43847</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43847</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43860</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43861</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43864</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43864</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43878</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43894</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43910</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>43917</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43917</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>43917</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43921</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43928</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43936</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43936</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43942</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43948</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43948</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43949</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>43973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43976</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44007</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44012</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44014</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44014</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44049</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44060</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>44061</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44061</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44071</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44078</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44081</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44082</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44082</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44082</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44082</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44082</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44082</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>44097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44102</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44105</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44112</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44118</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44118</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44118</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44120</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44123</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44123</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44123</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44124</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44124</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44124</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44125</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44130</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44131</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44133</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44138</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44146</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44146</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44151</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44151</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44151</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44158</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44161</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44162</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44166</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44167</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44167</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44167</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44167</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44168</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44180</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44183</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44187</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44201</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44203</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44215</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44215</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44221</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44230</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44245</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44256</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44258</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44264</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44270</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44281</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44281</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44309</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44319</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44323</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44323</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44340</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44340</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44340</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44340</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44340</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44340</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44340</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44340</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44341</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44349</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44351</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44354</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44356</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44365</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44368</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44376</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44379</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44384</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44384</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44385</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44400</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44414</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44418</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44426</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44432</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44441</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>44442</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44446</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44449</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44455</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44455</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44455</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44462</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44462</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44463</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44463</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44473</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44475</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44479</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44484</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44488</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44490</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44491</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44494</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44494</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44494</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44500</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44505</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44508</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44522</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44523</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44526</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44531</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44536</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44536</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44536</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44536</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44537</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44540</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44540</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44544</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44544</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44545</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44545</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44546</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44559</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44586</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44586</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>44592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44600</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44600</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44608</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44610</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>44614</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44627</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44628</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44641</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44652</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44652</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44659</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44659</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44659</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44673</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44673</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44685</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>44691</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44693</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44697</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44697</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44697</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44698</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44711</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>44714</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44715</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44721</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44721</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44721</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44721</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44732</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44749</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44750</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44771</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44777</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44784</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44788</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44791</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44794</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44797</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44797</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44802</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44803</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>44806</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44812</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44816</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44817</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>44817</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44818</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44818</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44818</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44819</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44820</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44825</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44834</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44839</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44840</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44841</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44844</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44845</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44845</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44846</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44848</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44851</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44854</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44860</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44860</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44861</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44865</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>44865</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>44868</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>44869</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44869</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44871</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>44872</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44873</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44874</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44874</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>44874</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>44874</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>44875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44875</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44876</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33947,7 +33947,7 @@
         <v>44880</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44881</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44882</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44886</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44886</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44886</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44886</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44888</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44888</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44890</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44902</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44902</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44902</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44902</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>44902</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44902</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44902</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44902</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44904</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44910</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44910</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>44910</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>44910</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>44910</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35811,7 +35811,7 @@
         <v>44911</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44914</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44915</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44915</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44915</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44916</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44916</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44917</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44917</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44918</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>44923</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>44924</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44925</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44925</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44925</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>44925</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>44925</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44925</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44925</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44925</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>44931</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44935</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44935</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37249,7 +37249,7 @@
         <v>44935</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44937</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>44938</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44942</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>44942</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>44943</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>44944</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44944</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44949</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44953</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44953</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44956</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44956</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44962</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44962</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44966</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>44967</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44967</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>44970</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>44971</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44971</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44974</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44974</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>44974</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38776,7 +38776,7 @@
         <v>44979</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44979</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44981</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>44987</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>44988</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>44995</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44998</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44999</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39356,7 +39356,7 @@
         <v>45001</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39418,7 +39418,7 @@
         <v>45005</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         <v>45014</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>45019</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>45019</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>45019</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>45021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45033</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45040</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39884,7 +39884,7 @@
         <v>45043</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>45043</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>45057</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45057</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45057</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45061</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45061</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45061</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45063</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45063</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45063</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45068</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>45068</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45069</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45069</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45072</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45076</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45076</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45084</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45093</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>45098</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45098</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45098</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45099</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41384,7 +41384,7 @@
         <v>45099</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45103</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45104</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45104</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45105</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45113</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45114</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45114</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45114</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45114</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45114</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45114</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45114</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45114</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45114</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45117</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45118</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45118</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>45118</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45118</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>45132</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45132</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45145</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45145</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45153</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45153</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45159</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45159</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45159</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45159</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45159</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45159</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>45159</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>45159</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45162</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43595,7 +43595,7 @@
         <v>45162</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43652,7 +43652,7 @@
         <v>45163</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45166</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>

--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -572,7 +572,7 @@
         <v>44168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44267</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44532</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44042</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44257</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43878</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44137</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43563</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44911</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44917</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45041</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45159</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43690</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43862</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44096</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44144</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44163</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>44496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44924</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44966</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44979</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44991</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>45148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45159</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43315</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43327</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43363</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43364</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43395</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43395</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43425</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43430</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43446</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43472</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43476</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43476</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43483</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43490</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43515</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43526</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43526</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43551</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43559</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43572</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43572</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43572</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43595</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43597</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43597</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43621</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43641</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43644</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43651</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43654</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43654</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43654</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43676</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43686</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43686</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43686</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43686</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43690</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43690</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43693</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43710</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>43710</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43710</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43713</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43718</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43719</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43719</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43719</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43723</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43749</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43759</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43768</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43768</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43770</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43782</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43783</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43783</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43786</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43796</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43801</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43818</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43829</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43829</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>43847</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43847</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43847</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43847</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43860</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43861</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43864</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43864</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43878</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43894</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43910</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>43917</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43917</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>43917</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43921</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43928</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43936</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43936</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43942</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43948</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43948</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43949</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>43973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43976</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44007</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44012</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44014</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44014</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44049</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44060</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>44061</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44061</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44071</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44078</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44081</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44082</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44082</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44082</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44082</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44082</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44082</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>44097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44102</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44105</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44112</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44118</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44118</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44118</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44120</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44123</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44123</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44123</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44124</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44124</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44124</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44125</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44130</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44131</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44133</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44138</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44146</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44146</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44151</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44151</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44151</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44158</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44161</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44162</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44166</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44167</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44167</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44167</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44167</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44168</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44180</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44183</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44187</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44201</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44203</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44215</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44215</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44221</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44230</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44245</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44256</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44258</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44264</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44270</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44281</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44281</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44309</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44319</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44323</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44323</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44340</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44340</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44340</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44340</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44340</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44340</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44340</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44340</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44341</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44349</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44351</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44354</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44356</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44365</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44368</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44376</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44379</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44384</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44384</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44385</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44400</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44414</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44418</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44426</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44432</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44441</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>44442</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44446</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44449</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44455</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44455</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44455</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44462</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44462</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44463</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44463</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44473</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44475</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44479</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44484</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44488</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44490</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44491</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44494</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44494</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44494</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44500</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44505</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44508</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44522</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44523</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44526</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44531</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44536</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44536</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44536</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44536</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44537</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44540</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44540</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44544</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44544</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44545</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44545</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44546</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44559</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44586</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44586</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>44592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44600</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44600</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44608</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44610</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>44614</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44627</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44628</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44641</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44652</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44652</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44659</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44659</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44659</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44673</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44673</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44685</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>44691</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44693</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44697</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44697</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44697</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44698</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44711</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>44714</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44715</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44721</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44721</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44721</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44721</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44732</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44749</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44750</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44771</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44777</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44784</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44788</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44791</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44794</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44797</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44797</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44802</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44803</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>44806</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44812</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44816</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44817</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>44817</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44818</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44818</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44818</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44819</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44820</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44825</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44834</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44839</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44840</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44841</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44844</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44845</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44845</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44846</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44848</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44851</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44854</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44860</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44860</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44861</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44865</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>44865</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>44868</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>44869</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44869</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44871</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>44872</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44873</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44874</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44874</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>44874</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>44874</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>44875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44875</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44876</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33947,7 +33947,7 @@
         <v>44880</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44881</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44882</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44886</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44886</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44886</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44886</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44888</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44888</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44890</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44902</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44902</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44902</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44902</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>44902</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44902</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44902</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44902</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44904</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44910</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44910</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>44910</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>44910</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>44910</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35811,7 +35811,7 @@
         <v>44911</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44914</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44915</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44915</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44915</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44916</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44916</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44917</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44917</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44918</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>44923</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>44924</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44925</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44925</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44925</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>44925</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>44925</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44925</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44925</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44925</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>44931</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44935</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44935</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37249,7 +37249,7 @@
         <v>44935</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44937</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>44938</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44942</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>44942</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>44943</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>44944</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44944</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44949</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44953</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44953</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44956</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44956</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44962</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44962</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44966</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>44967</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44967</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>44970</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>44971</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44971</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44974</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44974</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>44974</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38776,7 +38776,7 @@
         <v>44979</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44979</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44981</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>44987</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>44988</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>44995</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44998</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44999</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39356,7 +39356,7 @@
         <v>45001</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39418,7 +39418,7 @@
         <v>45005</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         <v>45014</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>45019</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>45019</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>45019</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>45021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45033</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45040</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39884,7 +39884,7 @@
         <v>45043</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>45043</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>45057</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45057</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45057</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45061</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45061</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45061</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45063</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45063</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45063</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45068</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>45068</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45069</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45069</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45072</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45076</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45076</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45084</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45093</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>45098</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45098</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45098</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45099</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41384,7 +41384,7 @@
         <v>45099</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45103</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45104</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45104</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45105</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45113</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45114</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45114</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45114</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45114</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45114</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45114</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45114</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45114</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45114</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45117</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45118</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45118</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>45118</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45118</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>45132</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45132</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45145</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45145</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45153</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45153</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45159</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45159</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45159</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45159</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45159</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45159</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>45159</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>45159</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45162</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43595,7 +43595,7 @@
         <v>45162</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43652,7 +43652,7 @@
         <v>45163</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45166</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>

--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -572,7 +572,7 @@
         <v>44168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44267</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44532</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44042</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44257</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43878</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44137</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43563</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44911</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44917</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45041</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45159</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43690</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43862</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44096</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44144</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44163</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>44496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44924</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44966</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44979</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44991</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>45148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45159</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43315</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43327</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43363</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43364</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43395</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43395</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43425</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43430</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43446</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43472</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43476</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43476</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43483</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43490</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43515</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43526</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43526</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43551</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43559</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43572</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43572</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43572</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43595</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43597</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43597</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43621</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43641</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43644</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43651</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43654</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43654</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43654</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43676</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43686</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43686</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43686</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43686</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43690</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43690</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43693</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43710</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>43710</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43710</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43713</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43718</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43719</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43719</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43719</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43723</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43749</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43759</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43768</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43768</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43770</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43782</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43783</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43783</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43786</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43796</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43801</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43818</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43829</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43829</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>43847</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43847</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43847</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43847</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43860</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43861</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43864</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43864</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43878</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43894</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43910</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>43917</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43917</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>43917</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43921</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43928</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43936</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43936</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43942</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43948</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43948</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43949</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>43973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43976</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44007</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44012</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44014</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44014</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44049</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44060</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>44061</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44061</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44071</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44078</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44081</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44082</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44082</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44082</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44082</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44082</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44082</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>44097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44102</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44105</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44112</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44118</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44118</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44118</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44120</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44123</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44123</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44123</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44124</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44124</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44124</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44125</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44130</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44131</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44133</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44138</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44146</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44146</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44151</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44151</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44151</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44158</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44161</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44162</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44166</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44167</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44167</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44167</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44167</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44168</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44180</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44183</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44187</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44201</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44203</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44215</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44215</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44221</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44230</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44245</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44256</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44258</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44264</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44270</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44281</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44281</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44309</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44319</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44323</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44323</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44340</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44340</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44340</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44340</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44340</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44340</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44340</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44340</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44341</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44349</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44351</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44354</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44356</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44365</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44368</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44376</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44379</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44384</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44384</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44385</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44400</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44414</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44418</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44426</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44432</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44441</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>44442</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44446</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44449</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44455</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44455</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44455</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44462</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44462</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44463</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44463</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44473</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44475</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44479</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44484</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44488</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44490</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44491</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44494</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44494</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44494</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44500</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44505</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44508</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44522</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44523</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44526</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44531</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44536</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44536</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44536</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44536</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44537</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44540</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44540</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44544</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44544</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44545</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44545</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44546</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44559</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44586</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44586</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>44592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44600</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44600</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44608</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44610</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>44614</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44627</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44628</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44641</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44652</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44652</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44659</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44659</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44659</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44673</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44673</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44685</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>44691</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44693</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44697</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44697</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44697</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44698</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44711</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>44714</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44715</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44721</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44721</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44721</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44721</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44732</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44749</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44750</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44771</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44777</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44784</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44788</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44791</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44794</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44797</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44797</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44802</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44803</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>44806</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44812</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44816</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44817</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>44817</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44818</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44818</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44818</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44819</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44820</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44825</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44834</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44839</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44840</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44841</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44844</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44845</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44845</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44846</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44848</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44851</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44854</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44860</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44860</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44861</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44865</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>44865</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>44868</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>44869</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44869</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44871</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>44872</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44873</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44874</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44874</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>44874</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>44874</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>44875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44875</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44876</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33947,7 +33947,7 @@
         <v>44880</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44881</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44882</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44886</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44886</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44886</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44886</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44888</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44888</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44890</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44902</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44902</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44902</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44902</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>44902</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44902</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44902</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44902</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44904</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44910</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44910</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>44910</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>44910</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>44910</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35811,7 +35811,7 @@
         <v>44911</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44914</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44915</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44915</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44915</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44916</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44916</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44917</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44917</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44918</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>44923</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>44924</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44925</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44925</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44925</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>44925</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>44925</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44925</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44925</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44925</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>44931</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44935</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44935</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37249,7 +37249,7 @@
         <v>44935</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44937</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>44938</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44942</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>44942</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>44943</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>44944</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44944</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44949</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44953</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44953</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44956</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44956</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44962</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44962</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44966</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>44967</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44967</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>44970</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>44971</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44971</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44974</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44974</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>44974</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38776,7 +38776,7 @@
         <v>44979</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44979</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44981</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>44987</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>44988</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>44995</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44998</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44999</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39356,7 +39356,7 @@
         <v>45001</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39418,7 +39418,7 @@
         <v>45005</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         <v>45014</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>45019</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>45019</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>45019</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>45021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45033</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45040</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39884,7 +39884,7 @@
         <v>45043</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>45043</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>45057</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45057</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45057</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45061</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45061</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45061</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45063</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45063</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45063</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45068</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>45068</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45069</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45069</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45072</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45076</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45076</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45084</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45093</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>45098</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45098</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45098</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45099</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41384,7 +41384,7 @@
         <v>45099</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45103</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45104</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45104</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45105</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45113</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45114</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45114</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45114</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45114</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45114</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45114</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45114</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45114</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45114</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45117</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45118</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45118</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>45118</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45118</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>45132</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45132</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45145</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45145</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45153</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45153</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45159</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45159</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45159</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45159</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45159</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45159</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>45159</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>45159</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45162</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43595,7 +43595,7 @@
         <v>45162</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43652,7 +43652,7 @@
         <v>45163</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45166</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>

--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -572,7 +572,7 @@
         <v>44168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44267</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44532</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44042</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44257</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43878</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44137</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43563</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44911</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44917</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45041</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45159</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43690</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43862</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44096</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44144</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44163</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>44496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44924</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44966</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44979</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44991</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>45148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45159</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43315</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43327</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43363</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43364</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43395</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43395</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43425</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43430</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43446</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43472</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43476</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43476</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43483</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43490</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43515</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43526</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43526</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43551</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43559</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43572</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43572</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43572</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43595</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43597</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43597</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43621</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43641</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43644</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43651</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43654</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43654</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43654</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43676</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43686</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43686</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43686</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43686</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43690</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43690</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43693</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43710</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>43710</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43710</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43713</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43718</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43719</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43719</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43719</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43723</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43749</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43759</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43768</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43768</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43770</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43782</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43783</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43783</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43786</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43796</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43801</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43818</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43829</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43829</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>43847</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43847</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43847</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43847</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43860</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43861</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43864</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43864</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43878</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43894</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43910</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>43917</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43917</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>43917</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43921</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43928</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43936</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43936</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43942</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43948</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43948</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43949</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>43973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43976</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44007</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44012</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44014</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44014</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44049</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44060</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>44061</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44061</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44071</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44078</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44081</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44082</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44082</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44082</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44082</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44082</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44082</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>44097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44102</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44105</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44112</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44118</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44118</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44118</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44120</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44123</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44123</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44123</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44124</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44124</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44124</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44125</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44130</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44131</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44133</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44138</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44146</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44146</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44151</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44151</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44151</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44158</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44161</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44162</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44166</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44167</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44167</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44167</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44167</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44168</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44180</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44183</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44187</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44201</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44203</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44215</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44215</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44221</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44230</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44245</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44256</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44258</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44264</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44270</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44281</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44281</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44309</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44319</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44323</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44323</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44340</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44340</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44340</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44340</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44340</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44340</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44340</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44340</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44341</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44349</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44351</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44354</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44356</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44365</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44368</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44376</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44379</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44384</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44384</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44385</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44400</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44414</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44418</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44426</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44432</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44441</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>44442</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44446</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44449</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44455</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44455</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44455</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44462</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44462</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44463</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44463</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44473</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44475</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44479</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44484</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44488</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44490</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44491</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44494</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44494</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44494</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44500</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44505</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44508</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44522</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44523</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44526</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44531</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44536</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44536</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44536</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44536</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44537</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44540</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44540</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44544</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44544</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44545</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44545</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44546</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44559</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44586</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44586</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>44592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44600</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44600</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44608</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44610</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>44614</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44627</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44628</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44641</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44652</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44652</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44659</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44659</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44659</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44673</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44673</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44685</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>44691</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44693</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44697</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44697</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44697</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44698</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44711</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>44714</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44715</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44721</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44721</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44721</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44721</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44732</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44749</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44750</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44771</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44777</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44784</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44788</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44791</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44794</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44797</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44797</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44802</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44803</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>44806</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44812</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44816</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44817</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>44817</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44818</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44818</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44818</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44819</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44820</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44825</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44834</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44839</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44840</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44841</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44844</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44845</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44845</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44846</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44848</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44851</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44854</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44860</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44860</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44861</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44865</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>44865</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>44868</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>44869</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44869</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44871</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>44872</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44873</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44874</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44874</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>44874</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>44874</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>44875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44875</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44876</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33947,7 +33947,7 @@
         <v>44880</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44881</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44882</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44886</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44886</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44886</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44886</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44888</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44888</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44890</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44902</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44902</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44902</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44902</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>44902</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44902</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44902</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44902</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44904</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44910</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44910</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>44910</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>44910</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>44910</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35811,7 +35811,7 @@
         <v>44911</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44914</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44915</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44915</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44915</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44916</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44916</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44917</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44917</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44918</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>44923</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>44924</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44925</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44925</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44925</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>44925</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>44925</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44925</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44925</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44925</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>44931</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44935</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44935</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37249,7 +37249,7 @@
         <v>44935</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44937</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>44938</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44942</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>44942</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>44943</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>44944</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44944</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44949</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44953</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44953</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44956</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44956</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44962</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44962</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44966</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>44967</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44967</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>44970</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>44971</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44971</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44974</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44974</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>44974</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38776,7 +38776,7 @@
         <v>44979</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44979</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44981</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>44987</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>44988</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>44995</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44998</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44999</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39356,7 +39356,7 @@
         <v>45001</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39418,7 +39418,7 @@
         <v>45005</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         <v>45014</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>45019</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>45019</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>45019</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>45021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45033</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45040</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39884,7 +39884,7 @@
         <v>45043</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>45043</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>45057</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45057</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45057</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45061</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45061</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45061</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45063</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45063</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45063</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45068</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>45068</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45069</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45069</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45072</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45076</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45076</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45084</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45093</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>45098</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45098</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45098</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45099</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41384,7 +41384,7 @@
         <v>45099</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45103</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45104</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45104</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45105</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45113</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45114</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45114</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45114</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45114</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45114</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45114</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45114</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45114</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45114</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45117</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45118</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45118</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>45118</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45118</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>45132</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45132</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45145</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45145</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45153</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45153</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45159</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45159</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45159</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45159</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45159</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45159</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>45159</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>45159</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45162</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43595,7 +43595,7 @@
         <v>45162</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43652,7 +43652,7 @@
         <v>45163</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45166</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>

--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -572,7 +572,7 @@
         <v>44168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44267</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44532</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44042</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44257</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43878</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44137</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43563</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44911</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44917</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45041</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45159</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43690</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43862</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44096</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44144</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44163</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>44496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44924</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44966</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44979</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44991</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>45148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45159</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43315</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43327</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43363</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43364</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43395</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43395</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43425</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43430</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43446</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43472</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43476</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43476</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43483</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43490</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43515</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43526</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43526</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43551</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43559</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43572</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43572</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43572</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43595</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43597</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43597</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43621</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43641</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43644</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43651</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43654</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43654</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43654</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43676</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43686</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43686</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43686</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43686</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43690</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43690</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43693</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43710</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>43710</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43710</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43713</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43718</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43719</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43719</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43719</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43723</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43749</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43759</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43768</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43768</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43770</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43782</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43783</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43783</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43786</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43796</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43801</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43818</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43829</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43829</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>43847</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43847</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43847</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43847</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43860</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43861</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43864</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43864</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43878</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43894</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43910</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>43917</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43917</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>43917</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43921</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43928</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43936</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43936</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43942</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43948</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43948</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43949</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>43973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43976</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44007</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44012</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44014</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44014</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44049</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44060</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>44061</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44061</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44071</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44078</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44081</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44082</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44082</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44082</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44082</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44082</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44082</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>44097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44102</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44105</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44112</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44118</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44118</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44118</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44120</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44123</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44123</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44123</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44124</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44124</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44124</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44125</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44130</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44131</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44133</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44138</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44146</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44146</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44151</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44151</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44151</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44158</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44161</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44162</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44166</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44167</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44167</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44167</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44167</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44168</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44180</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44183</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44187</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44201</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44203</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44215</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44215</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44221</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44230</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44245</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44256</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44258</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44264</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44270</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44281</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44281</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44309</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44319</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44323</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44323</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44340</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44340</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44340</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44340</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44340</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44340</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44340</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44340</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44341</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44349</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44351</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44354</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44356</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44365</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44368</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44376</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44379</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44384</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44384</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44385</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44400</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44414</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44418</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44426</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44432</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44441</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>44442</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44446</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44449</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44455</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44455</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44455</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44462</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44462</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44463</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44463</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44473</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44475</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44479</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44484</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44488</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44490</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44491</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44494</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44494</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44494</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44500</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44505</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44508</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44522</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44523</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44526</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44531</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44536</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44536</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44536</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44536</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44537</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44540</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44540</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44544</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44544</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44545</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44545</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44546</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44559</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44586</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44586</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>44592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44600</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44600</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44608</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44610</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>44614</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44627</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44628</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44641</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44652</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44652</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44659</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44659</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44659</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44673</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44673</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44685</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>44691</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44693</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44697</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44697</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44697</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44698</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44711</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>44714</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44715</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44721</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44721</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44721</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44721</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44732</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44749</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44750</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44771</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44777</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44784</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44788</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44791</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44794</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44797</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44797</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44802</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44803</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>44806</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44812</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44816</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44817</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>44817</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44818</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44818</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44818</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44819</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44820</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44825</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44834</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44839</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44840</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44841</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44844</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44845</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44845</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44846</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44848</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44851</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44854</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44860</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44860</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44861</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44865</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>44865</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>44868</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>44869</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44869</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44871</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>44872</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44873</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44874</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44874</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>44874</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>44874</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>44875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44875</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44876</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33947,7 +33947,7 @@
         <v>44880</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44881</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44882</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44886</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44886</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44886</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44886</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44888</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44888</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44890</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44902</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44902</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44902</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44902</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>44902</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44902</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44902</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44902</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44904</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44910</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44910</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>44910</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>44910</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>44910</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35811,7 +35811,7 @@
         <v>44911</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44914</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44915</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44915</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44915</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44916</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44916</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44917</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44917</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44918</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>44923</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>44924</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44925</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44925</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44925</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>44925</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>44925</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44925</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44925</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44925</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>44931</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44935</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44935</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37249,7 +37249,7 @@
         <v>44935</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44937</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>44938</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44942</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>44942</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>44943</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>44944</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44944</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44949</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44953</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44953</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44956</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44956</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44962</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44962</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44966</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>44967</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44967</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>44970</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>44971</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44971</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44974</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44974</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>44974</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38776,7 +38776,7 @@
         <v>44979</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44979</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44981</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>44987</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>44988</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>44995</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44998</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44999</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39356,7 +39356,7 @@
         <v>45001</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39418,7 +39418,7 @@
         <v>45005</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         <v>45014</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>45019</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>45019</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>45019</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>45021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45033</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45040</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39884,7 +39884,7 @@
         <v>45043</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>45043</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>45057</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45057</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45057</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45061</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45061</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45061</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45063</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45063</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45063</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45068</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>45068</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45069</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45069</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45072</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45076</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45076</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45084</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45093</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>45098</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45098</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45098</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45099</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41384,7 +41384,7 @@
         <v>45099</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45103</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45104</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45104</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45105</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45113</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45114</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45114</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45114</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45114</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45114</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45114</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45114</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45114</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45114</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45117</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45118</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45118</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>45118</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45118</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>45132</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45132</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45145</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45145</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45153</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45153</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45159</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45159</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45159</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45159</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45159</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45159</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>45159</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>45159</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45162</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43595,7 +43595,7 @@
         <v>45162</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43652,7 +43652,7 @@
         <v>45163</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45166</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>

--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y712"/>
+  <dimension ref="A1:Y714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44267</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44532</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44042</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44257</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43878</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44137</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43563</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44911</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44917</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45041</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45159</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43690</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43862</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44096</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44144</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44163</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>44496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44924</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44966</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44979</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44991</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>45148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45159</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43315</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43327</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43363</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43364</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43395</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43395</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43425</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43430</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43446</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43472</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43476</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43476</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43483</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43490</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43515</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43526</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43526</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43551</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43559</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43572</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43572</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43572</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43595</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43597</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43597</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43621</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43641</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43644</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43651</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43654</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43654</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43654</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43676</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43686</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43686</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43686</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43686</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43690</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43690</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43693</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43710</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>43710</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43710</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43713</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43718</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43719</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43719</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43719</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43723</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43749</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43759</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43768</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43768</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43770</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43782</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43783</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43783</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43786</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43796</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43801</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43818</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43829</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43829</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>43847</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43847</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43847</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43847</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43860</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43861</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43864</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43864</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43878</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43894</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43910</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>43917</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43917</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>43917</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43921</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43928</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43936</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43936</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43942</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43948</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43948</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43949</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>43973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43976</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44007</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44012</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44014</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44014</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44049</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44060</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>44061</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44061</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44071</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44078</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44081</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44082</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44082</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44082</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44082</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44082</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44082</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>44097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44102</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44105</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44112</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44118</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44118</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44118</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44120</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44123</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44123</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44123</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44124</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44124</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44124</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44125</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44130</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44131</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44133</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44138</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44146</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44146</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44151</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44151</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44151</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44158</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44161</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44162</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44166</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44167</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44167</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44167</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44167</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44168</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44180</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44183</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44187</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44201</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44203</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44215</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44215</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44221</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44230</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44245</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44256</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44258</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44264</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44270</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44281</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44281</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44309</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44319</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44323</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44323</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44340</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44340</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44340</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44340</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44340</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44340</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44340</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44340</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44341</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44349</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44351</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44354</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44356</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44365</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44368</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44376</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44379</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44384</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44384</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44385</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44400</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44414</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44418</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44426</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44432</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44441</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>44442</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44446</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44449</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44455</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44455</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44455</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44462</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44462</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44463</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44463</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44473</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44475</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44479</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44484</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44488</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44490</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44491</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44494</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44494</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44494</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44500</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44505</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44508</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44522</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44523</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44526</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44531</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44536</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44536</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44536</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44536</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44537</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44540</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44540</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44544</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44544</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44545</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44545</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44546</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44559</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44586</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44586</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>44592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44600</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44600</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44608</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44610</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>44614</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44627</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44628</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44641</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44652</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44652</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44659</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44659</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44659</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44673</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44673</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44685</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>44691</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44693</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44697</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44697</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44697</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44698</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44711</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>44714</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44715</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44721</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44721</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44721</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44721</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44732</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44749</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44750</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44771</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44777</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44784</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44788</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44791</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44794</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44797</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44797</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44802</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44803</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>44806</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44812</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44816</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44817</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>44817</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44818</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44818</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44818</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44819</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44820</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44825</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44834</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44839</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44840</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44841</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44844</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44845</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44845</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44846</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44848</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44851</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44854</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44860</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44860</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44861</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44865</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>44865</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>44868</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>44869</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44869</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44871</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>44872</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44873</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44874</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44874</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>44874</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>44874</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>44875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44875</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44876</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33947,7 +33947,7 @@
         <v>44880</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44881</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44882</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44886</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44886</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44886</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44886</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44888</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44888</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44890</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44902</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44902</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44902</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44902</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>44902</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44902</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44902</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44902</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44904</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44910</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44910</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>44910</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>44910</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>44910</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35811,7 +35811,7 @@
         <v>44911</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44914</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44915</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44915</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44915</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44916</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44916</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44917</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44917</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44918</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>44923</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>44924</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44925</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44925</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44925</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>44925</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>44925</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44925</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44925</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44925</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>44931</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44935</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44935</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37249,7 +37249,7 @@
         <v>44935</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44937</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>44938</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44942</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>44942</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>44943</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>44944</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44944</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44949</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44953</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44953</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44956</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44956</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44962</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44962</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44966</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>44967</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44967</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>44970</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>44971</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44971</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44974</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44974</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>44974</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38776,7 +38776,7 @@
         <v>44979</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44979</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44981</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>44987</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>44988</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>44995</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44998</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44999</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39356,7 +39356,7 @@
         <v>45001</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39418,7 +39418,7 @@
         <v>45005</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         <v>45014</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>45019</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>45019</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>45019</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>45021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45033</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45040</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39884,7 +39884,7 @@
         <v>45043</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>45043</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>45057</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45057</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45057</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45061</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45061</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45061</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45063</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45063</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45063</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45068</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>45068</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45069</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45069</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45072</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45076</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45076</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45084</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45093</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>45098</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45098</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45098</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45099</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41384,7 +41384,7 @@
         <v>45099</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45103</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45104</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45104</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45105</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45113</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45114</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45114</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45114</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45114</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45114</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45114</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45114</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45114</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45114</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45117</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45118</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45118</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>45118</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45118</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>45132</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45132</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45145</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45145</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45153</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45153</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45159</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45159</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45159</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45159</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45159</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45159</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>45159</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>45159</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45162</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43595,7 +43595,7 @@
         <v>45162</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43652,7 +43652,7 @@
         <v>45163</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43704,7 +43704,7 @@
       </c>
       <c r="R711" s="2" t="inlineStr"/>
     </row>
-    <row r="712">
+    <row r="712" ht="15" customHeight="1">
       <c r="A712" t="inlineStr">
         <is>
           <t>A 39292-2023</t>
@@ -43714,7 +43714,7 @@
         <v>45166</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43765,6 +43765,130 @@
         <v>0</v>
       </c>
       <c r="R712" s="2" t="inlineStr"/>
+    </row>
+    <row r="713" ht="15" customHeight="1">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>A 42584-2023</t>
+        </is>
+      </c>
+      <c r="B713" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C713" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>VINDELN</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G713" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0</v>
+      </c>
+      <c r="I713" t="n">
+        <v>0</v>
+      </c>
+      <c r="J713" t="n">
+        <v>0</v>
+      </c>
+      <c r="K713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N713" t="n">
+        <v>0</v>
+      </c>
+      <c r="O713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R713" s="2" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>A 42579-2023</t>
+        </is>
+      </c>
+      <c r="B714" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C714" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>VINDELN</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G714" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0</v>
+      </c>
+      <c r="I714" t="n">
+        <v>0</v>
+      </c>
+      <c r="J714" t="n">
+        <v>0</v>
+      </c>
+      <c r="K714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N714" t="n">
+        <v>0</v>
+      </c>
+      <c r="O714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R714" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y714"/>
+  <dimension ref="A1:Y715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44267</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44532</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44042</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44257</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43878</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44137</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43563</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44911</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44917</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45041</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45159</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43690</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43862</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44096</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44144</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44163</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>44496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44924</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44966</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44979</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44991</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>45148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45159</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43315</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43327</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43363</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43364</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43395</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43395</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43425</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43430</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43446</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43472</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43476</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43476</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43483</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43490</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43515</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43526</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43526</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43551</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43559</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43572</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43572</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43572</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43595</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43597</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43597</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43621</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43641</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43644</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43651</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43654</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43654</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43654</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43676</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43686</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43686</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43686</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43686</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43690</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43690</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43693</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43710</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>43710</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43710</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43713</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43718</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43719</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43719</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43719</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43723</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43749</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43759</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43768</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43768</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43770</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43782</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43783</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43783</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43786</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43796</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43801</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43818</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43829</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43829</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>43847</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43847</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43847</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43847</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43860</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43861</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43864</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43864</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43878</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43894</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43910</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>43917</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43917</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>43917</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43921</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43928</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43936</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43936</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43942</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43948</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43948</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43949</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>43973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43976</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44007</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44012</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44014</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44014</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44049</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44060</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>44061</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44061</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44071</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44078</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44081</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44082</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44082</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44082</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44082</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44082</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44082</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>44097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44102</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44105</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44112</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44118</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44118</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44118</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44120</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44123</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44123</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44123</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44124</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44124</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44124</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44125</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44130</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44131</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44133</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44138</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44146</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44146</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44151</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44151</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44151</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44158</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44161</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44162</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44166</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44167</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44167</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44167</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44167</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44168</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44180</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44183</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44187</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44201</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44203</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44215</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44215</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44221</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44230</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44245</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44256</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44258</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44264</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44270</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44281</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44281</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44309</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44319</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44323</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44323</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44340</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44340</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44340</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44340</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44340</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44340</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44340</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44340</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44341</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44349</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44351</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44354</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44356</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44365</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44368</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44376</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44379</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44384</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44384</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44385</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44400</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44414</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44418</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44426</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44432</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44441</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>44442</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44446</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44449</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44455</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44455</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44455</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44462</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44462</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44463</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44463</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44473</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44475</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44479</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44484</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44488</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44490</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44491</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44494</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44494</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44494</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44500</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44505</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44508</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44522</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44523</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44526</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44531</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44536</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44536</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44536</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44536</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44537</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44540</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44540</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44544</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44544</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44545</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44545</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44546</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44559</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44586</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44586</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>44592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44600</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44600</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44608</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44610</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>44614</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44627</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44628</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44641</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44652</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44652</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44659</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44659</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44659</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44673</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44673</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44685</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>44691</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44693</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44697</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44697</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44697</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44698</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44711</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>44714</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44715</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44721</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44721</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44721</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44721</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44732</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44749</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44750</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44771</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44777</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44784</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44788</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44791</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44794</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44797</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44797</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44802</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44803</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>44806</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44812</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44816</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44817</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>44817</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44818</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44818</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44818</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44819</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44820</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44825</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44834</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44839</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44840</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44841</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44844</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44845</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44845</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44846</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44848</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44851</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44854</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44860</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44860</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44861</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44865</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>44865</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>44868</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>44869</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44869</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44871</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>44872</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44873</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44874</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44874</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>44874</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>44874</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>44875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44875</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44876</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33947,7 +33947,7 @@
         <v>44880</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44881</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44882</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44886</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44886</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44886</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44886</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44888</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44888</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44890</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44902</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44902</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44902</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44902</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>44902</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44902</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44902</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44902</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44904</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44910</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44910</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>44910</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>44910</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>44910</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35811,7 +35811,7 @@
         <v>44911</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44914</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44915</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44915</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44915</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44916</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44916</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44917</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44917</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44918</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>44923</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>44924</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44925</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44925</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44925</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>44925</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>44925</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44925</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44925</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44925</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>44931</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44935</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44935</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37249,7 +37249,7 @@
         <v>44935</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44937</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>44938</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44942</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>44942</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>44943</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>44944</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44944</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44949</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44953</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44953</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44956</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44956</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44962</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44962</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44966</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>44967</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44967</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>44970</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>44971</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44971</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44974</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44974</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>44974</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38776,7 +38776,7 @@
         <v>44979</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44979</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44981</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>44987</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>44988</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>44995</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44998</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44999</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39356,7 +39356,7 @@
         <v>45001</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39418,7 +39418,7 @@
         <v>45005</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         <v>45014</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>45019</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>45019</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>45019</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>45021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45033</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45040</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39884,7 +39884,7 @@
         <v>45043</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>45043</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>45057</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45057</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45057</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45061</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45061</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45061</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45063</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45063</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45063</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45068</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>45068</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45069</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45069</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45072</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45076</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45076</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45084</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45093</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>45098</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45098</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45098</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45099</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41384,7 +41384,7 @@
         <v>45099</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45103</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45104</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45104</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45105</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45113</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45114</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45114</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45114</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45114</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45114</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45114</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45114</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45114</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45114</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45117</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45118</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45118</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>45118</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45118</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>45132</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45132</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45145</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45145</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45153</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45153</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45159</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45159</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45159</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45159</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45159</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45159</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>45159</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>45159</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45162</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43595,7 +43595,7 @@
         <v>45162</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43652,7 +43652,7 @@
         <v>45163</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45166</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45181</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43828,7 +43828,7 @@
       </c>
       <c r="R713" s="2" t="inlineStr"/>
     </row>
-    <row r="714">
+    <row r="714" ht="15" customHeight="1">
       <c r="A714" t="inlineStr">
         <is>
           <t>A 42579-2023</t>
@@ -43838,7 +43838,7 @@
         <v>45181</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43889,6 +43889,68 @@
         <v>0</v>
       </c>
       <c r="R714" s="2" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>A 43183-2023</t>
+        </is>
+      </c>
+      <c r="B715" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C715" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>VINDELN</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G715" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H715" t="n">
+        <v>0</v>
+      </c>
+      <c r="I715" t="n">
+        <v>0</v>
+      </c>
+      <c r="J715" t="n">
+        <v>0</v>
+      </c>
+      <c r="K715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N715" t="n">
+        <v>0</v>
+      </c>
+      <c r="O715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R715" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -572,7 +572,7 @@
         <v>44168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -643,27 +643,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 64461-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 64461-2020.xlsx", "A 64461-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 64461-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 64461-2020.png", "A 64461-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 64461-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 64461-2020.docx", "A 64461-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 64461-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 64461-2020.docx", "A 64461-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 64461-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 64461-2020.docx", "A 64461-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 64461-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 64461-2020.docx", "A 64461-2020")</f>
         <v/>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>44267</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,27 +744,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 12302-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 12302-2021.xlsx", "A 12302-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 12302-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 12302-2021.png", "A 12302-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 12302-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 12302-2021.docx", "A 12302-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 12302-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 12302-2021.docx", "A 12302-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 12302-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 12302-2021.docx", "A 12302-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 12302-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 12302-2021.docx", "A 12302-2021")</f>
         <v/>
       </c>
     </row>
@@ -778,7 +778,7 @@
         <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,27 +844,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 65389-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 65389-2021.xlsx", "A 65389-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 65389-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 65389-2021.png", "A 65389-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 65389-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 65389-2021.docx", "A 65389-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 65389-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 65389-2021.docx", "A 65389-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 65389-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 65389-2021.docx", "A 65389-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 65389-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 65389-2021.docx", "A 65389-2021")</f>
         <v/>
       </c>
     </row>
@@ -878,7 +878,7 @@
         <v>44532</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,27 +943,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 69626-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 69626-2021.xlsx", "A 69626-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 69626-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 69626-2021.png", "A 69626-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 69626-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 69626-2021.docx", "A 69626-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 69626-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 69626-2021.docx", "A 69626-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 69626-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 69626-2021.docx", "A 69626-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 69626-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 69626-2021.docx", "A 69626-2021")</f>
         <v/>
       </c>
     </row>
@@ -977,7 +977,7 @@
         <v>44042</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,27 +1041,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 35492-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 35492-2020.xlsx", "A 35492-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 35492-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 35492-2020.png", "A 35492-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 35492-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 35492-2020.docx", "A 35492-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 35492-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 35492-2020.docx", "A 35492-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 35492-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 35492-2020.docx", "A 35492-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 35492-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 35492-2020.docx", "A 35492-2020")</f>
         <v/>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
         <v>44118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,27 +1137,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 52547-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 52547-2020.xlsx", "A 52547-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 52547-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 52547-2020.png", "A 52547-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 52547-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 52547-2020.docx", "A 52547-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 52547-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 52547-2020.docx", "A 52547-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 52547-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 52547-2020.docx", "A 52547-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 52547-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 52547-2020.docx", "A 52547-2020")</f>
         <v/>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
         <v>44257</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,27 +1232,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 10306-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 10306-2021.xlsx", "A 10306-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 10306-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 10306-2021.png", "A 10306-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 10306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 10306-2021.docx", "A 10306-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 10306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 10306-2021.docx", "A 10306-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 10306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 10306-2021.docx", "A 10306-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 10306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 10306-2021.docx", "A 10306-2021")</f>
         <v/>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         <v>44690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,27 +1326,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 19007-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 19007-2022.xlsx", "A 19007-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 19007-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 19007-2022.png", "A 19007-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 19007-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 19007-2022.docx", "A 19007-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 19007-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 19007-2022.docx", "A 19007-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 19007-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 19007-2022.docx", "A 19007-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 19007-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 19007-2022.docx", "A 19007-2022")</f>
         <v/>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
         <v>43878</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,27 +1414,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 8741-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 8741-2020.xlsx", "A 8741-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 8741-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 8741-2020.png", "A 8741-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 8741-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 8741-2020.docx", "A 8741-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 8741-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 8741-2020.docx", "A 8741-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 8741-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 8741-2020.docx", "A 8741-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 8741-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 8741-2020.docx", "A 8741-2020")</f>
         <v/>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
         <v>44137</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,27 +1502,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 56894-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 56894-2020.xlsx", "A 56894-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 56894-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 56894-2020.png", "A 56894-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 56894-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 56894-2020.docx", "A 56894-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 56894-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 56894-2020.docx", "A 56894-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 56894-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 56894-2020.docx", "A 56894-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 56894-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 56894-2020.docx", "A 56894-2020")</f>
         <v/>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
         <v>43563</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,27 +1589,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 18981-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 18981-2019.xlsx", "A 18981-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 18981-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 18981-2019.png", "A 18981-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 18981-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 18981-2019.docx", "A 18981-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 18981-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 18981-2019.docx", "A 18981-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 18981-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 18981-2019.docx", "A 18981-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 18981-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 18981-2019.docx", "A 18981-2019")</f>
         <v/>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
         <v>44131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,27 +1681,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 55616-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 55616-2020.xlsx", "A 55616-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 55616-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 55616-2020.png", "A 55616-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 55616-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 55616-2020.docx", "A 55616-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 55616-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 55616-2020.docx", "A 55616-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 55616-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 55616-2020.docx", "A 55616-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 55616-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 55616-2020.docx", "A 55616-2020")</f>
         <v/>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
         <v>44911</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1773,27 +1773,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 60434-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 60434-2022.xlsx", "A 60434-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 60434-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 60434-2022.png", "A 60434-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 60434-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 60434-2022.docx", "A 60434-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 60434-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 60434-2022.docx", "A 60434-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 60434-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 60434-2022.docx", "A 60434-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 60434-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 60434-2022.docx", "A 60434-2022")</f>
         <v/>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
         <v>44917</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1860,27 +1860,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 61824-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 61824-2022.xlsx", "A 61824-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 61824-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 61824-2022.png", "A 61824-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 61824-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 61824-2022.docx", "A 61824-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 61824-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 61824-2022.docx", "A 61824-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 61824-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 61824-2022.docx", "A 61824-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 61824-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 61824-2022.docx", "A 61824-2022")</f>
         <v/>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
         <v>45041</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,27 +1947,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 18360-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 18360-2023.xlsx", "A 18360-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 18360-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 18360-2023.png", "A 18360-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 18360-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 18360-2023.docx", "A 18360-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 18360-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 18360-2023.docx", "A 18360-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 18360-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 18360-2023.docx", "A 18360-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 18360-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 18360-2023.docx", "A 18360-2023")</f>
         <v/>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
         <v>44074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2038,27 +2038,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 41578-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 41578-2020.xlsx", "A 41578-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 41578-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 41578-2020.png", "A 41578-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 41578-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 41578-2020.docx", "A 41578-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 41578-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 41578-2020.docx", "A 41578-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 41578-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 41578-2020.docx", "A 41578-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 41578-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 41578-2020.docx", "A 41578-2020")</f>
         <v/>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2129,27 +2129,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 52101-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 52101-2021.xlsx", "A 52101-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 52101-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 52101-2021.png", "A 52101-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 52101-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 52101-2021.docx", "A 52101-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 52101-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 52101-2021.docx", "A 52101-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 52101-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 52101-2021.docx", "A 52101-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 52101-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 52101-2021.docx", "A 52101-2021")</f>
         <v/>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
         <v>44910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2220,27 +2220,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 60313-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 60313-2022.xlsx", "A 60313-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 60313-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 60313-2022.png", "A 60313-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 60313-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 60313-2022.docx", "A 60313-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 60313-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 60313-2022.docx", "A 60313-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 60313-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 60313-2022.docx", "A 60313-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 60313-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 60313-2022.docx", "A 60313-2022")</f>
         <v/>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,27 +2306,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 35927-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 35927-2023.xlsx", "A 35927-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 35927-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 35927-2023.png", "A 35927-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 35927-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 35927-2023.docx", "A 35927-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 35927-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 35927-2023.docx", "A 35927-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 35927-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 35927-2023.docx", "A 35927-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 35927-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 35927-2023.docx", "A 35927-2023")</f>
         <v/>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
         <v>45159</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2392,27 +2392,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 38062-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 38062-2023.xlsx", "A 38062-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 38062-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 38062-2023.png", "A 38062-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 38062-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 38062-2023.docx", "A 38062-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 38062-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 38062-2023.docx", "A 38062-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 38062-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 38062-2023.docx", "A 38062-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 38062-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 38062-2023.docx", "A 38062-2023")</f>
         <v/>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2482,27 +2482,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 37440-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 37440-2018.xlsx", "A 37440-2018")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 37440-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 37440-2018.png", "A 37440-2018")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 37440-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 37440-2018.docx", "A 37440-2018")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 37440-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 37440-2018.docx", "A 37440-2018")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 37440-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 37440-2018.docx", "A 37440-2018")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 37440-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 37440-2018.docx", "A 37440-2018")</f>
         <v/>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2572,27 +2572,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 68368-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 68368-2018.xlsx", "A 68368-2018")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 68368-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 68368-2018.png", "A 68368-2018")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 68368-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 68368-2018.docx", "A 68368-2018")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 68368-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 68368-2018.docx", "A 68368-2018")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 68368-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 68368-2018.docx", "A 68368-2018")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 68368-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 68368-2018.docx", "A 68368-2018")</f>
         <v/>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2657,27 +2657,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 69786-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 69786-2018.xlsx", "A 69786-2018")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 69786-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 69786-2018.png", "A 69786-2018")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 69786-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 69786-2018.docx", "A 69786-2018")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 69786-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 69786-2018.docx", "A 69786-2018")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 69786-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 69786-2018.docx", "A 69786-2018")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 69786-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 69786-2018.docx", "A 69786-2018")</f>
         <v/>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,27 +2742,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 4325-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 4325-2019.xlsx", "A 4325-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 4325-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 4325-2019.png", "A 4325-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 4325-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 4325-2019.docx", "A 4325-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 4325-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 4325-2019.docx", "A 4325-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 4325-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 4325-2019.docx", "A 4325-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 4325-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 4325-2019.docx", "A 4325-2019")</f>
         <v/>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2832,27 +2832,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 32631-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 32631-2019.xlsx", "A 32631-2019")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 32631-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 32631-2019.png", "A 32631-2019")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 32631-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 32631-2019.docx", "A 32631-2019")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 32631-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 32631-2019.docx", "A 32631-2019")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 32631-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 32631-2019.docx", "A 32631-2019")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 32631-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 32631-2019.docx", "A 32631-2019")</f>
         <v/>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
         <v>43690</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2922,27 +2922,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 39400-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 39400-2019.xlsx", "A 39400-2019")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 39400-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 39400-2019.png", "A 39400-2019")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 39400-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 39400-2019.docx", "A 39400-2019")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 39400-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 39400-2019.docx", "A 39400-2019")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 39400-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 39400-2019.docx", "A 39400-2019")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 39400-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 39400-2019.docx", "A 39400-2019")</f>
         <v/>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
         <v>43862</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3007,27 +3007,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 5716-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 5716-2020.xlsx", "A 5716-2020")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 5716-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 5716-2020.png", "A 5716-2020")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 5716-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 5716-2020.docx", "A 5716-2020")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 5716-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 5716-2020.docx", "A 5716-2020")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 5716-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 5716-2020.docx", "A 5716-2020")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 5716-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 5716-2020.docx", "A 5716-2020")</f>
         <v/>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
         <v>44096</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3092,27 +3092,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 47013-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 47013-2020.xlsx", "A 47013-2020")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 47013-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 47013-2020.png", "A 47013-2020")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 47013-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 47013-2020.docx", "A 47013-2020")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 47013-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 47013-2020.docx", "A 47013-2020")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 47013-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 47013-2020.docx", "A 47013-2020")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 47013-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 47013-2020.docx", "A 47013-2020")</f>
         <v/>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3182,27 +3182,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 52538-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 52538-2020.xlsx", "A 52538-2020")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 52538-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 52538-2020.png", "A 52538-2020")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 52538-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 52538-2020.docx", "A 52538-2020")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 52538-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 52538-2020.docx", "A 52538-2020")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 52538-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 52538-2020.docx", "A 52538-2020")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 52538-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 52538-2020.docx", "A 52538-2020")</f>
         <v/>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
         <v>44144</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3272,27 +3272,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 58269-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 58269-2020.xlsx", "A 58269-2020")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 58269-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 58269-2020.png", "A 58269-2020")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 58269-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 58269-2020.docx", "A 58269-2020")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 58269-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 58269-2020.docx", "A 58269-2020")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 58269-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 58269-2020.docx", "A 58269-2020")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 58269-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 58269-2020.docx", "A 58269-2020")</f>
         <v/>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
         <v>44163</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,27 +3362,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 63227-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 63227-2020.xlsx", "A 63227-2020")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 63227-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 63227-2020.png", "A 63227-2020")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 63227-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 63227-2020.docx", "A 63227-2020")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 63227-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 63227-2020.docx", "A 63227-2020")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 63227-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 63227-2020.docx", "A 63227-2020")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 63227-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 63227-2020.docx", "A 63227-2020")</f>
         <v/>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,27 +3452,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 10340-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 10340-2021.xlsx", "A 10340-2021")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 10340-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 10340-2021.png", "A 10340-2021")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 10340-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 10340-2021.docx", "A 10340-2021")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 10340-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 10340-2021.docx", "A 10340-2021")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 10340-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 10340-2021.docx", "A 10340-2021")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 10340-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 10340-2021.docx", "A 10340-2021")</f>
         <v/>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
         <v>44439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,27 +3537,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 45267-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 45267-2021.xlsx", "A 45267-2021")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 45267-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 45267-2021.png", "A 45267-2021")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 45267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 45267-2021.docx", "A 45267-2021")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 45267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 45267-2021.docx", "A 45267-2021")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 45267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 45267-2021.docx", "A 45267-2021")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 45267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 45267-2021.docx", "A 45267-2021")</f>
         <v/>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
         <v>44496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3627,27 +3627,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 60651-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 60651-2021.xlsx", "A 60651-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 60651-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 60651-2021.png", "A 60651-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 60651-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 60651-2021.docx", "A 60651-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 60651-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 60651-2021.docx", "A 60651-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 60651-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 60651-2021.docx", "A 60651-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 60651-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 60651-2021.docx", "A 60651-2021")</f>
         <v/>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
         <v>44742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,27 +3717,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 27583-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 27583-2022.xlsx", "A 27583-2022")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 27583-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 27583-2022.png", "A 27583-2022")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 27583-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 27583-2022.docx", "A 27583-2022")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 27583-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 27583-2022.docx", "A 27583-2022")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 27583-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 27583-2022.docx", "A 27583-2022")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 27583-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 27583-2022.docx", "A 27583-2022")</f>
         <v/>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3802,27 +3802,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 61826-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 61826-2022.xlsx", "A 61826-2022")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 61826-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 61826-2022.png", "A 61826-2022")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 61826-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 61826-2022.docx", "A 61826-2022")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 61826-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 61826-2022.docx", "A 61826-2022")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 61826-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 61826-2022.docx", "A 61826-2022")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 61826-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 61826-2022.docx", "A 61826-2022")</f>
         <v/>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
         <v>44924</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3887,27 +3887,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 62578-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 62578-2022.xlsx", "A 62578-2022")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 62578-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 62578-2022.png", "A 62578-2022")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 62578-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 62578-2022.docx", "A 62578-2022")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 62578-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 62578-2022.docx", "A 62578-2022")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 62578-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 62578-2022.docx", "A 62578-2022")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 62578-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 62578-2022.docx", "A 62578-2022")</f>
         <v/>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
         <v>44925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3972,27 +3972,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 62698-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 62698-2022.xlsx", "A 62698-2022")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 62698-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 62698-2022.png", "A 62698-2022")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 62698-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 62698-2022.docx", "A 62698-2022")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 62698-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 62698-2022.docx", "A 62698-2022")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 62698-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 62698-2022.docx", "A 62698-2022")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 62698-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 62698-2022.docx", "A 62698-2022")</f>
         <v/>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
         <v>44966</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4062,27 +4062,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 6651-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 6651-2023.xlsx", "A 6651-2023")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 6651-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 6651-2023.png", "A 6651-2023")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 6651-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 6651-2023.docx", "A 6651-2023")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 6651-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 6651-2023.docx", "A 6651-2023")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 6651-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 6651-2023.docx", "A 6651-2023")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 6651-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 6651-2023.docx", "A 6651-2023")</f>
         <v/>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
         <v>44979</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4147,27 +4147,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 10029-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 10029-2023.xlsx", "A 10029-2023")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 10029-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 10029-2023.png", "A 10029-2023")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 10029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 10029-2023.docx", "A 10029-2023")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 10029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 10029-2023.docx", "A 10029-2023")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 10029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 10029-2023.docx", "A 10029-2023")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 10029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 10029-2023.docx", "A 10029-2023")</f>
         <v/>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
         <v>44991</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4232,27 +4232,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 10862-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 10862-2023.xlsx", "A 10862-2023")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 10862-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 10862-2023.png", "A 10862-2023")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 10862-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 10862-2023.docx", "A 10862-2023")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 10862-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 10862-2023.docx", "A 10862-2023")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 10862-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 10862-2023.docx", "A 10862-2023")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 10862-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 10862-2023.docx", "A 10862-2023")</f>
         <v/>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
         <v>45148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4317,27 +4317,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 35915-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 35915-2023.xlsx", "A 35915-2023")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 35915-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 35915-2023.png", "A 35915-2023")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 35915-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 35915-2023.docx", "A 35915-2023")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 35915-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 35915-2023.docx", "A 35915-2023")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 35915-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 35915-2023.docx", "A 35915-2023")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 35915-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 35915-2023.docx", "A 35915-2023")</f>
         <v/>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
         <v>45159</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4402,31 +4402,31 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 37953-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/artfynd/A 37953-2023.xlsx", "A 37953-2023")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 37953-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/kartor/A 37953-2023.png", "A 37953-2023")</f>
         <v/>
       </c>
       <c r="U44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/knärot/A 37953-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/knärot/A 37953-2023.png", "A 37953-2023")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 37953-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 37953-2023.docx", "A 37953-2023")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 37953-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 37953-2023.docx", "A 37953-2023")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 37953-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 37953-2023.docx", "A 37953-2023")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 37953-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 37953-2023.docx", "A 37953-2023")</f>
         <v/>
       </c>
     </row>
@@ -4440,7 +4440,7 @@
         <v>43315</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43327</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43363</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43364</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43395</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43395</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43425</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43430</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43446</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43472</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43476</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43476</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43483</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43490</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43515</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43526</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43526</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43551</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43559</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43572</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43572</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43572</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43595</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43597</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43597</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43621</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43641</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43644</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43651</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43654</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43654</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43654</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43676</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43686</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43686</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43686</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43686</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43690</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43690</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10969,23 +10969,23 @@
       </c>
       <c r="R156" s="2" t="inlineStr"/>
       <c r="U156">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/knärot/A 39406-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/knärot/A 39406-2019.png", "A 39406-2019")</f>
         <v/>
       </c>
       <c r="V156">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 39406-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 39406-2019.docx", "A 39406-2019")</f>
         <v/>
       </c>
       <c r="W156">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 39406-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 39406-2019.docx", "A 39406-2019")</f>
         <v/>
       </c>
       <c r="X156">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 39406-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 39406-2019.docx", "A 39406-2019")</f>
         <v/>
       </c>
       <c r="Y156">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 39406-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 39406-2019.docx", "A 39406-2019")</f>
         <v/>
       </c>
     </row>
@@ -10999,7 +10999,7 @@
         <v>43693</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43710</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>43710</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43710</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43713</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43718</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43719</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43719</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43719</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43723</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43749</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43759</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43768</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43768</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43770</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43782</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43783</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43783</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43786</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43796</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43801</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43818</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43829</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43829</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>43847</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43847</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43847</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43847</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43860</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43861</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43864</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43864</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43878</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43894</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43910</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>43917</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43917</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>43917</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43921</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43928</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43936</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43936</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43942</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43948</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43948</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43949</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>43973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43976</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44007</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44012</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44014</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44014</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44049</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44060</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>44061</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44061</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44071</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44078</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44081</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44082</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44082</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44082</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44082</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44082</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44082</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>44097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44102</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44105</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44112</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44118</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44118</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44118</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44120</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44123</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44123</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44123</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44124</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44124</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44124</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44125</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44130</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44131</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44133</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44138</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44146</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44146</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44151</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44151</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44151</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44158</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44161</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44162</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44166</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44167</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44167</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44167</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44167</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44168</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44180</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44183</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44187</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44201</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44203</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44215</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44215</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44221</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44230</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44245</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44256</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44258</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44264</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44270</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44281</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44281</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44309</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44319</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44323</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44323</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44340</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44340</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44340</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44340</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44340</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44340</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44340</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44340</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44341</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44349</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44351</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44354</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44356</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44365</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44368</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44376</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44379</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44384</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44384</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44385</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44400</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44414</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44418</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44426</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44432</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44441</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>44442</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44446</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44449</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44455</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44455</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44455</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44462</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44462</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44463</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44463</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44473</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44475</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44479</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44484</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44488</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44490</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44491</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44494</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44494</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44494</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44500</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44505</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44508</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44522</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44523</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44526</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44531</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44536</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44536</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44536</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44536</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44537</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44540</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44540</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44544</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44544</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44545</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44545</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44546</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44559</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44586</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44586</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>44592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44600</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44600</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44608</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44610</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>44614</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44627</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44628</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44641</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44652</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44652</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44659</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44659</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44659</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44673</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44673</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44685</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>44691</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44693</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44697</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44697</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44697</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44698</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44711</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>44714</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44715</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44721</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44721</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44721</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44721</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44732</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44749</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44750</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44771</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44777</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44784</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44788</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44791</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44794</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44797</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44797</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44802</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44803</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>44806</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44812</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44816</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44817</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>44817</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44818</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44818</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44818</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44819</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44820</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44825</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44834</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44839</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44840</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44841</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44844</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44845</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44845</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44846</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44848</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44851</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44854</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44860</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44860</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44861</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44865</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>44865</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>44868</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>44869</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44869</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44871</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>44872</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44873</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44874</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44874</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>44874</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>44874</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>44875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44875</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44876</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33947,7 +33947,7 @@
         <v>44880</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44881</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44882</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44886</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44886</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44886</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44886</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44888</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44888</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44890</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44902</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44902</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44902</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44902</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>44902</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44902</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44902</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44902</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44904</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44910</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44910</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>44910</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>44910</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>44910</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35811,7 +35811,7 @@
         <v>44911</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44914</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44915</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44915</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44915</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44916</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44916</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44917</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44917</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44918</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>44923</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>44924</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44925</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44925</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44925</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>44925</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>44925</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44925</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44925</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44925</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>44931</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44935</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44935</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37249,7 +37249,7 @@
         <v>44935</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44937</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>44938</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44942</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>44942</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>44943</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>44944</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44944</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44949</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44953</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44953</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44956</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44956</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44962</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44962</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44966</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>44967</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44967</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>44970</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>44971</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44971</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44974</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44974</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>44974</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38776,7 +38776,7 @@
         <v>44979</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44979</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44981</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>44987</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>44988</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>44995</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44998</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44999</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39356,7 +39356,7 @@
         <v>45001</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39418,7 +39418,7 @@
         <v>45005</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         <v>45014</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>45019</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>45019</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>45019</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>45021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45033</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45040</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39884,7 +39884,7 @@
         <v>45043</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>45043</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>45057</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45057</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45057</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45061</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45061</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45061</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45063</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45063</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45063</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45068</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>45068</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45069</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45069</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45072</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45076</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45076</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45084</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45093</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>45098</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45098</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45098</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45099</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41384,7 +41384,7 @@
         <v>45099</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45103</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45104</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45104</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45105</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45113</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45114</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45114</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45114</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45114</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45114</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45114</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45114</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45114</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45114</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45117</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45118</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45118</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>45118</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45118</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>45132</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45132</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45145</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45145</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45153</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45153</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45159</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45159</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45159</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45159</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45159</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45159</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43389,23 +43389,23 @@
       </c>
       <c r="R706" s="2" t="inlineStr"/>
       <c r="U706">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/knärot/A 37948-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/knärot/A 37948-2023.png", "A 37948-2023")</f>
         <v/>
       </c>
       <c r="V706">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 37948-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomål/A 37948-2023.docx", "A 37948-2023")</f>
         <v/>
       </c>
       <c r="W706">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 37948-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/klagomålsmail/A 37948-2023.docx", "A 37948-2023")</f>
         <v/>
       </c>
       <c r="X706">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 37948-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsyn/A 37948-2023.docx", "A 37948-2023")</f>
         <v/>
       </c>
       <c r="Y706">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 37948-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINDELN/tillsynsmail/A 37948-2023.docx", "A 37948-2023")</f>
         <v/>
       </c>
     </row>
@@ -43419,7 +43419,7 @@
         <v>45159</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>45159</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45162</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43595,7 +43595,7 @@
         <v>45162</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43652,7 +43652,7 @@
         <v>45163</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45166</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45181</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43838,7 +43838,7 @@
         <v>45181</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43900,7 +43900,7 @@
         <v>45183</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>

--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -572,7 +572,7 @@
         <v>44168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44267</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44532</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44042</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44257</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43878</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44137</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43563</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44911</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44917</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45041</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45159</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43690</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43862</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44096</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44144</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44163</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>44496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44924</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44966</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44979</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44991</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>45148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45159</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43315</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43327</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43363</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43364</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43395</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43395</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43425</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43430</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43446</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43472</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43476</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43476</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43483</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43490</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43515</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43526</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43526</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43551</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43559</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43572</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43572</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43572</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43595</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43597</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43597</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43621</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43641</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43644</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43651</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43654</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43654</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43654</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43676</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43686</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43686</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43686</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43686</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43690</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43690</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43693</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43710</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>43710</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43710</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43713</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43718</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43719</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43719</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43719</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43723</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43749</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43759</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43768</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43768</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43770</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43782</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43783</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43783</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43786</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43796</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43801</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43818</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43829</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43829</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>43847</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43847</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43847</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43847</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43860</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43861</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43864</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43864</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43878</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43894</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43910</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>43917</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43917</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>43917</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43921</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43928</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43936</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43936</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43942</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43948</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43948</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43949</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>43973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43976</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44007</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44012</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44014</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44014</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44049</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44060</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>44061</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44061</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44071</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44078</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44081</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44082</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44082</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44082</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44082</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44082</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44082</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>44097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44102</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44105</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44112</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44118</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44118</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44118</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44120</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44123</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44123</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44123</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44124</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44124</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44124</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44125</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44130</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44131</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44133</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44138</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44146</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44146</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44151</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44151</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44151</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44158</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44161</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44162</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44166</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44167</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44167</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44167</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44167</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44168</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44180</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44183</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44187</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44201</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44203</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44215</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44215</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44221</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44230</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44245</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44256</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44258</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44264</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44270</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44281</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44281</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44309</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44319</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44323</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44323</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44340</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44340</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44340</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44340</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44340</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44340</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44340</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44340</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44341</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44349</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44351</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44354</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44356</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44365</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44368</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44376</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44379</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44384</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44384</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44385</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44400</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44414</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44418</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44426</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44432</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44441</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>44442</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44446</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44449</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44455</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44455</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44455</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44462</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44462</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44463</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44463</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44473</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44475</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44479</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44484</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44488</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44490</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44491</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44494</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44494</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44494</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44500</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44505</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44508</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44522</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44523</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44526</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44531</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44536</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44536</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44536</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44536</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44537</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44540</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44540</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44544</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44544</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44545</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44545</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44546</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44559</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44586</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44586</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>44592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44600</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44600</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44608</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44610</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>44614</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44627</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44628</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44641</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44652</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44652</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44659</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44659</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44659</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44673</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44673</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44685</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>44691</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44693</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44697</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44697</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44697</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44698</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44711</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>44714</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44715</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44721</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44721</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44721</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44721</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44732</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44749</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44750</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44771</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44777</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44784</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44788</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44791</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44794</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44797</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44797</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44802</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44803</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>44806</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44812</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44816</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44817</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>44817</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44818</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44818</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44818</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44819</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44820</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44825</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44834</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44839</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44840</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44841</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44844</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44845</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44845</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44846</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44848</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44851</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44854</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44860</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44860</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44861</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44865</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>44865</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>44868</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>44869</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44869</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44871</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>44872</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44873</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44874</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44874</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>44874</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>44874</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>44875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44875</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44876</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33947,7 +33947,7 @@
         <v>44880</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44881</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44882</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44886</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44886</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44886</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44886</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44888</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44888</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44890</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44902</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44902</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44902</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44902</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>44902</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44902</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44902</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44902</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44904</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44910</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44910</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>44910</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>44910</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>44910</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35811,7 +35811,7 @@
         <v>44911</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44914</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44915</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44915</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44915</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44916</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44916</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44917</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44917</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44918</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>44923</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>44924</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44925</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44925</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44925</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>44925</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>44925</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44925</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44925</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44925</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>44931</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44935</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44935</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37249,7 +37249,7 @@
         <v>44935</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44937</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>44938</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44942</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>44942</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>44943</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>44944</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44944</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44949</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44953</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44953</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44956</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44956</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44962</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44962</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44966</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>44967</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44967</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>44970</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>44971</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44971</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44974</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44974</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>44974</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38776,7 +38776,7 @@
         <v>44979</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44979</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44981</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>44987</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>44988</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>44995</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44998</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44999</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39356,7 +39356,7 @@
         <v>45001</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39418,7 +39418,7 @@
         <v>45005</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         <v>45014</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>45019</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>45019</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>45019</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>45021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45033</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45040</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39884,7 +39884,7 @@
         <v>45043</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>45043</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>45057</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45057</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45057</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45061</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45061</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45061</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45063</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45063</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45063</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45068</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>45068</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45069</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45069</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45072</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45076</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45076</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45084</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45093</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>45098</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45098</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45098</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45099</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41384,7 +41384,7 @@
         <v>45099</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45103</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45104</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45104</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45105</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45113</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45114</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45114</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45114</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45114</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45114</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45114</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45114</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45114</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45114</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45117</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45118</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45118</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>45118</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45118</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>45132</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45132</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45145</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45145</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45153</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45153</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45159</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45159</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45159</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45159</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45159</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45159</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>45159</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>45159</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45162</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43595,7 +43595,7 @@
         <v>45162</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43652,7 +43652,7 @@
         <v>45163</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45166</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45181</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43838,7 +43838,7 @@
         <v>45181</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43900,7 +43900,7 @@
         <v>45183</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>

--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -572,7 +572,7 @@
         <v>44168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44267</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44532</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44042</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44257</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43878</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44137</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43563</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44911</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44917</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45041</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45159</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43690</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43862</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44096</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44144</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44163</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>44496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44924</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44966</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44979</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44991</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>45148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45159</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43315</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43327</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43363</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43364</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43395</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43395</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43425</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43430</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43446</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43472</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43476</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43476</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43483</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43490</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43515</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43526</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43526</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43551</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43559</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43572</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43572</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43572</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43595</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43597</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43597</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43621</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43641</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43644</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43651</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43654</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43654</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43654</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43676</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43686</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43686</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43686</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43686</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43690</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43690</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43693</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43710</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>43710</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43710</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43713</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43718</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43719</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43719</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43719</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43723</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43749</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43759</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43768</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43768</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43770</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43782</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43783</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43783</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43786</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43796</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43801</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43818</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43829</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43829</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>43847</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43847</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43847</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43847</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43860</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43861</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43864</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43864</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43878</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43894</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43910</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>43917</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43917</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>43917</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43921</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43928</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43936</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43936</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43942</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43948</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43948</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43949</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>43973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43976</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44007</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44012</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44014</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44014</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44049</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44060</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>44061</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44061</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44071</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44078</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44081</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44082</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44082</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44082</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44082</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44082</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44082</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>44097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44102</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44105</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44112</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44118</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44118</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44118</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44120</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44123</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44123</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44123</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44124</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44124</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44124</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44125</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44130</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44131</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44133</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44138</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44146</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44146</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44151</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44151</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44151</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44158</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44161</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44162</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44166</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44167</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44167</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44167</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44167</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44168</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44180</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44183</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44187</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44201</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44203</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44215</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44215</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44221</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44230</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44245</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44256</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44258</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44264</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44270</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44281</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44281</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44309</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44319</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44323</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44323</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44340</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44340</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44340</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44340</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44340</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44340</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44340</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44340</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44341</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44349</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44351</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44354</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44356</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44365</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44368</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44376</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44379</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44384</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44384</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44385</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44400</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44414</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44418</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44426</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44432</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44441</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>44442</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44446</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44449</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44455</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44455</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44455</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44462</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44462</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44463</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44463</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44473</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44475</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44479</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44484</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44488</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44490</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44491</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44494</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44494</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44494</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44500</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44505</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44508</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44522</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44523</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44526</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44531</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44536</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44536</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44536</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44536</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44537</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44540</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44540</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44544</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44544</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44545</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44545</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44546</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44559</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44586</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44586</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>44592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44600</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44600</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44608</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44610</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>44614</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44627</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44628</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44641</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44652</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44652</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44659</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44659</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44659</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44673</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44673</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44685</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>44691</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44693</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44697</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44697</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44697</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44698</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44711</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>44714</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44715</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44721</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44721</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44721</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44721</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44732</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44749</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44750</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44771</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44777</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44784</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44788</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44791</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44794</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44797</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44797</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44802</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44803</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>44806</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44812</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44816</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44817</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>44817</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44818</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44818</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44818</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44819</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44820</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44825</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44834</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44839</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44840</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44841</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44844</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44845</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44845</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44846</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44848</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44851</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44854</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44860</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44860</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44861</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44865</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>44865</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>44868</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>44869</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44869</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44871</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>44872</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44873</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44874</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44874</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>44874</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>44874</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>44875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44875</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44876</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33947,7 +33947,7 @@
         <v>44880</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44881</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44882</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44886</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44886</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44886</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44886</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44888</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44888</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44890</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44902</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44902</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44902</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44902</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>44902</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44902</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44902</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44902</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44904</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44910</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44910</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>44910</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>44910</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>44910</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35811,7 +35811,7 @@
         <v>44911</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44914</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44915</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44915</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44915</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44916</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44916</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44917</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44917</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44918</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>44923</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>44924</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44925</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44925</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44925</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>44925</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>44925</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44925</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44925</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44925</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>44931</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44935</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44935</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37249,7 +37249,7 @@
         <v>44935</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44937</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>44938</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44942</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>44942</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>44943</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>44944</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44944</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44949</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44953</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44953</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44956</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44956</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44962</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44962</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44966</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>44967</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44967</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>44970</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>44971</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44971</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44974</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44974</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>44974</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38776,7 +38776,7 @@
         <v>44979</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44979</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44981</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>44987</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>44988</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>44995</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44998</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44999</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39356,7 +39356,7 @@
         <v>45001</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39418,7 +39418,7 @@
         <v>45005</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         <v>45014</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>45019</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>45019</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>45019</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>45021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45033</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45040</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39884,7 +39884,7 @@
         <v>45043</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>45043</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>45057</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45057</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45057</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45061</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45061</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45061</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45063</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45063</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45063</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45068</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>45068</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45069</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45069</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45072</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45076</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45076</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45084</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45093</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>45098</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45098</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45098</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45099</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41384,7 +41384,7 @@
         <v>45099</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45103</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45104</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45104</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45105</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45113</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45114</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45114</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45114</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45114</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45114</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45114</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45114</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45114</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45114</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45117</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45118</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45118</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>45118</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45118</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>45132</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45132</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45145</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45145</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45153</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45153</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45159</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45159</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45159</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45159</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45159</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45159</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>45159</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>45159</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45162</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43595,7 +43595,7 @@
         <v>45162</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43652,7 +43652,7 @@
         <v>45163</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45166</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45181</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43838,7 +43838,7 @@
         <v>45181</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43900,7 +43900,7 @@
         <v>45183</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>

--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -572,7 +572,7 @@
         <v>44168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44267</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44532</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44042</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44257</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43878</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44137</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43563</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44911</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44917</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45041</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45159</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43690</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43862</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44096</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44144</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44163</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>44496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44924</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44966</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44979</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44991</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>45148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45159</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43315</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43327</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43363</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43364</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43395</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43395</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43425</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43430</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43446</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43472</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43476</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43476</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43483</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43490</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43515</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43526</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43526</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43551</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43559</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43572</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43572</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43572</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43595</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43597</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43597</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43621</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43641</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43644</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43651</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43654</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43654</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43654</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43676</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43686</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43686</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43686</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43686</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43690</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43690</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43693</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43710</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>43710</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43710</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43713</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43718</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43719</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43719</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43719</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43723</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43749</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43759</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43768</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43768</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43770</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43782</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43783</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43783</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43786</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43796</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43801</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43818</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43829</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43829</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>43847</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43847</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43847</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43847</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43860</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43861</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43864</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43864</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43878</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43894</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43910</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>43917</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43917</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>43917</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43921</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43928</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43936</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43936</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43942</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43948</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43948</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43949</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>43973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43976</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44007</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44012</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44014</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44014</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44049</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44060</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>44061</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44061</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44071</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44078</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44081</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44082</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44082</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44082</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44082</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44082</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44082</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>44097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44102</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44105</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44112</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44118</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44118</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44118</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44120</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44123</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44123</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44123</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44124</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44124</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44124</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44125</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44130</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44131</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44133</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44138</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44146</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44146</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44151</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44151</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44151</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44158</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44161</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44162</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44166</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44167</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44167</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44167</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44167</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44168</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44180</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44183</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44187</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44201</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44203</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44215</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44215</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44221</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44230</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44245</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44256</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44258</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44264</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44270</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44281</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44281</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44309</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44319</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44323</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44323</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44340</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44340</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44340</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44340</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44340</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44340</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44340</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44340</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44341</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44349</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44351</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44354</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44356</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44365</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44368</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44376</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44379</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44384</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44384</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44385</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44400</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44414</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44418</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44426</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44432</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44441</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>44442</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44446</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44449</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44455</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44455</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44455</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44462</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44462</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44463</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44463</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44473</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44475</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44479</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44484</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44488</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44490</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44491</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44494</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44494</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44494</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44500</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44505</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44508</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44522</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44523</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44526</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44531</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44536</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44536</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44536</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44536</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44537</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44540</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44540</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44544</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44544</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44545</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44545</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44546</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44559</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44586</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44586</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>44592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44600</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44600</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44608</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44610</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>44614</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44627</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44628</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44641</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44652</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44652</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44659</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44659</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44659</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44673</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44673</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44685</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>44691</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44693</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44697</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44697</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44697</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44698</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44711</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>44714</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44715</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44721</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44721</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44721</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44721</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44732</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44749</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44750</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44771</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44777</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44784</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44788</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44791</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44794</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44797</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44797</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44802</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44803</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>44806</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44812</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44816</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44817</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>44817</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44818</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44818</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44818</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44819</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44820</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44825</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44834</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44839</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44840</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44841</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44844</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44845</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44845</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44846</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44848</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44851</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44854</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44860</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44860</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44861</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44865</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>44865</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>44868</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>44869</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44869</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44871</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>44872</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44873</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44874</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44874</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>44874</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>44874</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>44875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44875</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44876</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33947,7 +33947,7 @@
         <v>44880</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44881</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44882</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44886</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44886</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44886</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44886</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44888</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44888</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44890</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44902</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44902</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44902</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44902</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>44902</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44902</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44902</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44902</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44904</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44910</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44910</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>44910</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>44910</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>44910</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35811,7 +35811,7 @@
         <v>44911</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44914</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44915</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44915</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44915</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44916</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44916</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44917</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44917</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44918</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>44923</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>44924</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44925</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44925</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44925</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>44925</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>44925</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44925</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44925</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44925</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>44931</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44935</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44935</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37249,7 +37249,7 @@
         <v>44935</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44937</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>44938</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44942</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>44942</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>44943</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>44944</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44944</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44949</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44953</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44953</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44956</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44956</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44962</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44962</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44966</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>44967</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44967</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>44970</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>44971</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44971</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44974</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44974</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>44974</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38776,7 +38776,7 @@
         <v>44979</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44979</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44981</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>44987</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>44988</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>44995</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44998</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44999</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39356,7 +39356,7 @@
         <v>45001</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39418,7 +39418,7 @@
         <v>45005</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         <v>45014</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>45019</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>45019</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>45019</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>45021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45033</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45040</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39884,7 +39884,7 @@
         <v>45043</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>45043</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>45057</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45057</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45057</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45061</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45061</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45061</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45063</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45063</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45063</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45068</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>45068</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45069</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45069</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45072</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45076</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45076</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45084</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45093</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>45098</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45098</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45098</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45099</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41384,7 +41384,7 @@
         <v>45099</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45103</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45104</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45104</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45105</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45113</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45114</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45114</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45114</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45114</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45114</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45114</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45114</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45114</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45114</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45117</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45118</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45118</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>45118</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45118</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>45132</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45132</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45145</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45145</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45153</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45153</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45159</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45159</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45159</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45159</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45159</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45159</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>45159</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>45159</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45162</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43595,7 +43595,7 @@
         <v>45162</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43652,7 +43652,7 @@
         <v>45163</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45166</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45181</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43838,7 +43838,7 @@
         <v>45181</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43900,7 +43900,7 @@
         <v>45183</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>

--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -572,7 +572,7 @@
         <v>44168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44267</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44532</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44042</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44257</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44690</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43878</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44137</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43563</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44911</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44917</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45041</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45159</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43690</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43862</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44096</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44144</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>44163</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44257</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>44496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44924</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44966</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44979</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44991</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>45148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45159</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43315</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43327</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43363</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43364</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43395</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43395</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43425</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43425</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43430</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43446</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43467</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43467</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43472</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43476</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43476</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43483</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43488</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43490</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43495</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43515</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43526</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43526</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43551</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43559</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43572</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43572</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43572</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43572</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43595</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43597</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43597</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43598</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43621</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43641</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43644</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43651</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43654</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43654</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43654</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43676</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43686</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43686</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43686</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43686</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43690</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43690</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43693</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>43710</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>43710</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43710</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43713</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43718</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43719</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43719</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43719</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43723</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43749</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43759</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43768</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43768</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43770</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43782</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43783</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43783</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43786</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43796</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43801</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43809</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43818</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43829</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43829</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43838</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43839</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43840</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>43847</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43847</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43847</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43847</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43860</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43861</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43864</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43864</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>43864</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43878</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43894</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43910</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>43917</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43917</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>43917</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43921</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43928</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43936</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>43936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43936</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43942</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43948</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43948</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43949</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>43973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43976</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44004</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44006</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44007</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44007</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44012</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44014</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44014</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44014</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44049</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44060</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>44061</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>44061</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44071</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44078</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44081</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44082</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44082</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44082</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44082</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44082</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44082</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>44097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44102</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>44105</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44112</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44118</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44118</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44118</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44120</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44123</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44123</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44123</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44124</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44124</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44124</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44125</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44130</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44131</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44133</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>44138</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44146</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44146</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44151</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44151</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44151</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44158</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44161</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44162</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44166</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44167</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44167</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44167</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44167</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44168</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44168</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44180</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44183</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44187</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44201</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44203</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44208</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44215</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44215</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44221</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44230</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44245</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44256</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44258</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44264</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44270</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44281</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44281</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44309</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44319</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44323</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44323</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44340</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44340</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44340</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44340</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44340</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44340</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44340</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44340</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44341</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44349</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44351</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44354</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44356</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44365</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44368</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44376</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44379</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44384</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44384</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44385</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44400</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44414</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44418</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44426</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44432</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44441</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>44442</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44446</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44449</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44455</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44455</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44455</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44462</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44462</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44463</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44463</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44473</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44475</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44479</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44484</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>44488</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>44490</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>44491</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44494</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44494</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44494</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44500</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44505</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44508</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44509</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44511</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44522</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44523</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44526</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44531</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44536</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44536</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44536</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44536</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44537</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44540</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44540</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44544</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44544</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44545</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44545</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44546</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44559</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44586</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44586</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>44592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44600</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44600</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44608</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44610</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>44614</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44627</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44628</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44641</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44641</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44641</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44652</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44652</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44659</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44659</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44659</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44673</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44673</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44685</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>44691</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44693</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44697</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44697</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44697</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44698</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44711</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>44714</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44715</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44721</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44721</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44721</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44721</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44732</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44749</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44750</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44771</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44777</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44784</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44788</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44791</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44794</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44797</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44797</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44798</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44802</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44803</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>44806</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44812</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44816</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44817</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>44817</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44818</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44818</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44818</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44819</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44820</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44825</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44834</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44839</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44840</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44841</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44844</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44845</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44845</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44846</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44848</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44851</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44854</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44860</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44860</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>44861</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44865</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>44865</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>44868</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>44869</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44869</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>44871</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>44872</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>44873</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44874</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44874</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>44874</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>44874</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>44875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44875</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44876</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33947,7 +33947,7 @@
         <v>44880</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44881</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44882</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44886</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44886</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44886</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44886</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44888</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44888</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44890</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44902</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44902</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44902</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44902</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>44902</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44902</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44902</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44902</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44904</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44910</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44910</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>44910</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         <v>44910</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>44910</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35811,7 +35811,7 @@
         <v>44911</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>44914</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44915</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44915</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44915</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44916</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44916</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44917</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44917</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44918</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>44923</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>44924</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44925</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44925</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44925</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>44925</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>44925</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44925</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>44925</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44925</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>44931</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>44935</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37187,7 +37187,7 @@
         <v>44935</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37249,7 +37249,7 @@
         <v>44935</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44937</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>44938</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44942</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>44942</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>44943</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>44944</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44944</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44949</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44953</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44953</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44956</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44956</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44962</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44962</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44966</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>44967</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44967</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>44970</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>44971</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44971</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44974</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44974</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>44974</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38776,7 +38776,7 @@
         <v>44979</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44979</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44981</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>44987</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>44988</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>44994</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>44995</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44998</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44998</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44999</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39356,7 +39356,7 @@
         <v>45001</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39418,7 +39418,7 @@
         <v>45005</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         <v>45014</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>45019</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>45019</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>45019</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>45021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>45033</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>45040</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39884,7 +39884,7 @@
         <v>45043</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>45043</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>45057</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45057</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45057</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45061</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45061</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45061</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45063</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45063</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45063</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45068</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>45068</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45069</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45069</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45072</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45076</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45076</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45084</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45093</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>45098</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45098</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>45098</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45099</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41384,7 +41384,7 @@
         <v>45099</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45103</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45104</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45104</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45105</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45113</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45114</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45114</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45114</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45114</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45114</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45114</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45114</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45114</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45114</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45117</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45118</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45118</v>
       </c>
       <c r="C6